--- a/Gráficas1.xlsx
+++ b/Gráficas1.xlsx
@@ -9,10 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20460" windowHeight="7590"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20460" windowHeight="7590" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="2">
   <si>
     <t>x</t>
   </si>
@@ -349,7 +350,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
@@ -390,4 +391,890 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B141"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D140" sqref="D140"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <f>B2+0.1</f>
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <f t="shared" ref="B4:B67" si="0">B3+0.1</f>
+        <v>0.30000000000000004</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <f t="shared" si="0"/>
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <f t="shared" si="0"/>
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <f t="shared" si="0"/>
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <f t="shared" si="0"/>
+        <v>0.79999999999999993</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B10">
+        <f t="shared" si="0"/>
+        <v>0.89999999999999991</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B11">
+        <f t="shared" si="0"/>
+        <v>0.99999999999999989</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B12">
+        <f t="shared" si="0"/>
+        <v>1.0999999999999999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B13">
+        <f t="shared" si="0"/>
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B14">
+        <f t="shared" si="0"/>
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B15">
+        <f t="shared" si="0"/>
+        <v>1.4000000000000001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B16">
+        <f t="shared" si="0"/>
+        <v>1.5000000000000002</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B17">
+        <f t="shared" si="0"/>
+        <v>1.6000000000000003</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B18">
+        <f t="shared" si="0"/>
+        <v>1.7000000000000004</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B19">
+        <f t="shared" si="0"/>
+        <v>1.8000000000000005</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B20">
+        <f t="shared" si="0"/>
+        <v>1.9000000000000006</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B21">
+        <f t="shared" si="0"/>
+        <v>2.0000000000000004</v>
+      </c>
+    </row>
+    <row r="22" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B22">
+        <f t="shared" si="0"/>
+        <v>2.1000000000000005</v>
+      </c>
+    </row>
+    <row r="23" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B23">
+        <f t="shared" si="0"/>
+        <v>2.2000000000000006</v>
+      </c>
+    </row>
+    <row r="24" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B24">
+        <f t="shared" si="0"/>
+        <v>2.3000000000000007</v>
+      </c>
+    </row>
+    <row r="25" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B25">
+        <f t="shared" si="0"/>
+        <v>2.4000000000000008</v>
+      </c>
+    </row>
+    <row r="26" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B26">
+        <f t="shared" si="0"/>
+        <v>2.5000000000000009</v>
+      </c>
+    </row>
+    <row r="27" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B27">
+        <f t="shared" si="0"/>
+        <v>2.600000000000001</v>
+      </c>
+    </row>
+    <row r="28" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B28">
+        <f t="shared" si="0"/>
+        <v>2.7000000000000011</v>
+      </c>
+    </row>
+    <row r="29" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B29">
+        <f t="shared" si="0"/>
+        <v>2.8000000000000012</v>
+      </c>
+    </row>
+    <row r="30" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B30">
+        <f t="shared" si="0"/>
+        <v>2.9000000000000012</v>
+      </c>
+    </row>
+    <row r="31" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B31">
+        <f t="shared" si="0"/>
+        <v>3.0000000000000013</v>
+      </c>
+    </row>
+    <row r="32" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B32">
+        <f t="shared" si="0"/>
+        <v>3.1000000000000014</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B33">
+        <f t="shared" si="0"/>
+        <v>3.2000000000000015</v>
+      </c>
+    </row>
+    <row r="34" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B34">
+        <f t="shared" si="0"/>
+        <v>3.3000000000000016</v>
+      </c>
+    </row>
+    <row r="35" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B35">
+        <f t="shared" si="0"/>
+        <v>3.4000000000000017</v>
+      </c>
+    </row>
+    <row r="36" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B36">
+        <f t="shared" si="0"/>
+        <v>3.5000000000000018</v>
+      </c>
+    </row>
+    <row r="37" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B37">
+        <f t="shared" si="0"/>
+        <v>3.6000000000000019</v>
+      </c>
+    </row>
+    <row r="38" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B38">
+        <f t="shared" si="0"/>
+        <v>3.700000000000002</v>
+      </c>
+    </row>
+    <row r="39" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B39">
+        <f t="shared" si="0"/>
+        <v>3.800000000000002</v>
+      </c>
+    </row>
+    <row r="40" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B40">
+        <f t="shared" si="0"/>
+        <v>3.9000000000000021</v>
+      </c>
+    </row>
+    <row r="41" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B41">
+        <f t="shared" si="0"/>
+        <v>4.0000000000000018</v>
+      </c>
+    </row>
+    <row r="42" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B42">
+        <f t="shared" si="0"/>
+        <v>4.1000000000000014</v>
+      </c>
+    </row>
+    <row r="43" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B43">
+        <f t="shared" si="0"/>
+        <v>4.2000000000000011</v>
+      </c>
+    </row>
+    <row r="44" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B44">
+        <f t="shared" si="0"/>
+        <v>4.3000000000000007</v>
+      </c>
+    </row>
+    <row r="45" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B45">
+        <f t="shared" si="0"/>
+        <v>4.4000000000000004</v>
+      </c>
+    </row>
+    <row r="46" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B46">
+        <f t="shared" si="0"/>
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="47" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B47">
+        <f t="shared" si="0"/>
+        <v>4.5999999999999996</v>
+      </c>
+    </row>
+    <row r="48" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B48">
+        <f t="shared" si="0"/>
+        <v>4.6999999999999993</v>
+      </c>
+    </row>
+    <row r="49" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B49">
+        <f t="shared" si="0"/>
+        <v>4.7999999999999989</v>
+      </c>
+    </row>
+    <row r="50" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B50">
+        <f t="shared" si="0"/>
+        <v>4.8999999999999986</v>
+      </c>
+    </row>
+    <row r="51" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B51">
+        <f t="shared" si="0"/>
+        <v>4.9999999999999982</v>
+      </c>
+    </row>
+    <row r="52" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B52">
+        <f t="shared" si="0"/>
+        <v>5.0999999999999979</v>
+      </c>
+    </row>
+    <row r="53" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B53">
+        <f t="shared" si="0"/>
+        <v>5.1999999999999975</v>
+      </c>
+    </row>
+    <row r="54" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B54">
+        <f t="shared" si="0"/>
+        <v>5.2999999999999972</v>
+      </c>
+    </row>
+    <row r="55" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B55">
+        <f t="shared" si="0"/>
+        <v>5.3999999999999968</v>
+      </c>
+    </row>
+    <row r="56" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B56">
+        <f t="shared" si="0"/>
+        <v>5.4999999999999964</v>
+      </c>
+    </row>
+    <row r="57" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B57">
+        <f t="shared" si="0"/>
+        <v>5.5999999999999961</v>
+      </c>
+    </row>
+    <row r="58" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B58">
+        <f t="shared" si="0"/>
+        <v>5.6999999999999957</v>
+      </c>
+    </row>
+    <row r="59" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B59">
+        <f t="shared" si="0"/>
+        <v>5.7999999999999954</v>
+      </c>
+    </row>
+    <row r="60" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B60">
+        <f t="shared" si="0"/>
+        <v>5.899999999999995</v>
+      </c>
+    </row>
+    <row r="61" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B61">
+        <f t="shared" si="0"/>
+        <v>5.9999999999999947</v>
+      </c>
+    </row>
+    <row r="62" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B62">
+        <f t="shared" si="0"/>
+        <v>6.0999999999999943</v>
+      </c>
+    </row>
+    <row r="63" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B63">
+        <f t="shared" si="0"/>
+        <v>6.199999999999994</v>
+      </c>
+    </row>
+    <row r="64" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B64">
+        <f t="shared" si="0"/>
+        <v>6.2999999999999936</v>
+      </c>
+    </row>
+    <row r="65" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B65">
+        <f t="shared" si="0"/>
+        <v>6.3999999999999932</v>
+      </c>
+    </row>
+    <row r="66" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B66">
+        <f t="shared" si="0"/>
+        <v>6.4999999999999929</v>
+      </c>
+    </row>
+    <row r="67" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B67">
+        <f t="shared" si="0"/>
+        <v>6.5999999999999925</v>
+      </c>
+    </row>
+    <row r="68" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B68">
+        <f t="shared" ref="B68:B131" si="1">B67+0.1</f>
+        <v>6.6999999999999922</v>
+      </c>
+    </row>
+    <row r="69" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B69">
+        <f t="shared" si="1"/>
+        <v>6.7999999999999918</v>
+      </c>
+    </row>
+    <row r="70" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B70">
+        <f t="shared" si="1"/>
+        <v>6.8999999999999915</v>
+      </c>
+    </row>
+    <row r="71" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B71">
+        <f t="shared" si="1"/>
+        <v>6.9999999999999911</v>
+      </c>
+    </row>
+    <row r="72" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B72">
+        <f t="shared" si="1"/>
+        <v>7.0999999999999908</v>
+      </c>
+    </row>
+    <row r="73" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B73">
+        <f t="shared" si="1"/>
+        <v>7.1999999999999904</v>
+      </c>
+    </row>
+    <row r="74" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B74">
+        <f t="shared" si="1"/>
+        <v>7.2999999999999901</v>
+      </c>
+    </row>
+    <row r="75" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B75">
+        <f t="shared" si="1"/>
+        <v>7.3999999999999897</v>
+      </c>
+    </row>
+    <row r="76" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B76">
+        <f t="shared" si="1"/>
+        <v>7.4999999999999893</v>
+      </c>
+    </row>
+    <row r="77" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B77">
+        <f t="shared" si="1"/>
+        <v>7.599999999999989</v>
+      </c>
+    </row>
+    <row r="78" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B78">
+        <f t="shared" si="1"/>
+        <v>7.6999999999999886</v>
+      </c>
+    </row>
+    <row r="79" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B79">
+        <f t="shared" si="1"/>
+        <v>7.7999999999999883</v>
+      </c>
+    </row>
+    <row r="80" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B80">
+        <f t="shared" si="1"/>
+        <v>7.8999999999999879</v>
+      </c>
+    </row>
+    <row r="81" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B81">
+        <f t="shared" si="1"/>
+        <v>7.9999999999999876</v>
+      </c>
+    </row>
+    <row r="82" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B82">
+        <f t="shared" si="1"/>
+        <v>8.0999999999999872</v>
+      </c>
+    </row>
+    <row r="83" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B83">
+        <f t="shared" si="1"/>
+        <v>8.1999999999999869</v>
+      </c>
+    </row>
+    <row r="84" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B84">
+        <f t="shared" si="1"/>
+        <v>8.2999999999999865</v>
+      </c>
+    </row>
+    <row r="85" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B85">
+        <f t="shared" si="1"/>
+        <v>8.3999999999999861</v>
+      </c>
+    </row>
+    <row r="86" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B86">
+        <f t="shared" si="1"/>
+        <v>8.4999999999999858</v>
+      </c>
+    </row>
+    <row r="87" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B87">
+        <f t="shared" si="1"/>
+        <v>8.5999999999999854</v>
+      </c>
+    </row>
+    <row r="88" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B88">
+        <f t="shared" si="1"/>
+        <v>8.6999999999999851</v>
+      </c>
+    </row>
+    <row r="89" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B89">
+        <f t="shared" si="1"/>
+        <v>8.7999999999999847</v>
+      </c>
+    </row>
+    <row r="90" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B90">
+        <f t="shared" si="1"/>
+        <v>8.8999999999999844</v>
+      </c>
+    </row>
+    <row r="91" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B91">
+        <f t="shared" si="1"/>
+        <v>8.999999999999984</v>
+      </c>
+    </row>
+    <row r="92" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B92">
+        <f t="shared" si="1"/>
+        <v>9.0999999999999837</v>
+      </c>
+    </row>
+    <row r="93" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B93">
+        <f t="shared" si="1"/>
+        <v>9.1999999999999833</v>
+      </c>
+    </row>
+    <row r="94" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B94">
+        <f t="shared" si="1"/>
+        <v>9.2999999999999829</v>
+      </c>
+    </row>
+    <row r="95" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B95">
+        <f t="shared" si="1"/>
+        <v>9.3999999999999826</v>
+      </c>
+    </row>
+    <row r="96" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B96">
+        <f t="shared" si="1"/>
+        <v>9.4999999999999822</v>
+      </c>
+    </row>
+    <row r="97" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B97">
+        <f t="shared" si="1"/>
+        <v>9.5999999999999819</v>
+      </c>
+    </row>
+    <row r="98" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B98">
+        <f t="shared" si="1"/>
+        <v>9.6999999999999815</v>
+      </c>
+    </row>
+    <row r="99" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B99">
+        <f t="shared" si="1"/>
+        <v>9.7999999999999812</v>
+      </c>
+    </row>
+    <row r="100" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B100">
+        <f t="shared" si="1"/>
+        <v>9.8999999999999808</v>
+      </c>
+    </row>
+    <row r="101" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B101">
+        <f t="shared" si="1"/>
+        <v>9.9999999999999805</v>
+      </c>
+    </row>
+    <row r="102" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B102">
+        <f t="shared" si="1"/>
+        <v>10.09999999999998</v>
+      </c>
+    </row>
+    <row r="103" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B103">
+        <f t="shared" si="1"/>
+        <v>10.19999999999998</v>
+      </c>
+    </row>
+    <row r="104" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B104">
+        <f t="shared" si="1"/>
+        <v>10.299999999999979</v>
+      </c>
+    </row>
+    <row r="105" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B105">
+        <f t="shared" si="1"/>
+        <v>10.399999999999979</v>
+      </c>
+    </row>
+    <row r="106" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B106">
+        <f t="shared" si="1"/>
+        <v>10.499999999999979</v>
+      </c>
+    </row>
+    <row r="107" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B107">
+        <f t="shared" si="1"/>
+        <v>10.599999999999978</v>
+      </c>
+    </row>
+    <row r="108" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B108">
+        <f t="shared" si="1"/>
+        <v>10.699999999999978</v>
+      </c>
+    </row>
+    <row r="109" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B109">
+        <f t="shared" si="1"/>
+        <v>10.799999999999978</v>
+      </c>
+    </row>
+    <row r="110" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B110">
+        <f t="shared" si="1"/>
+        <v>10.899999999999977</v>
+      </c>
+    </row>
+    <row r="111" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B111">
+        <f t="shared" si="1"/>
+        <v>10.999999999999977</v>
+      </c>
+    </row>
+    <row r="112" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B112">
+        <f t="shared" si="1"/>
+        <v>11.099999999999977</v>
+      </c>
+    </row>
+    <row r="113" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B113">
+        <f t="shared" si="1"/>
+        <v>11.199999999999976</v>
+      </c>
+    </row>
+    <row r="114" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B114">
+        <f t="shared" si="1"/>
+        <v>11.299999999999976</v>
+      </c>
+    </row>
+    <row r="115" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B115">
+        <f t="shared" si="1"/>
+        <v>11.399999999999975</v>
+      </c>
+    </row>
+    <row r="116" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B116">
+        <f t="shared" si="1"/>
+        <v>11.499999999999975</v>
+      </c>
+    </row>
+    <row r="117" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B117">
+        <f t="shared" si="1"/>
+        <v>11.599999999999975</v>
+      </c>
+    </row>
+    <row r="118" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B118">
+        <f t="shared" si="1"/>
+        <v>11.699999999999974</v>
+      </c>
+    </row>
+    <row r="119" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B119">
+        <f t="shared" si="1"/>
+        <v>11.799999999999974</v>
+      </c>
+    </row>
+    <row r="120" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B120">
+        <f t="shared" si="1"/>
+        <v>11.899999999999974</v>
+      </c>
+    </row>
+    <row r="121" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B121">
+        <f t="shared" si="1"/>
+        <v>11.999999999999973</v>
+      </c>
+    </row>
+    <row r="122" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B122">
+        <f t="shared" si="1"/>
+        <v>12.099999999999973</v>
+      </c>
+    </row>
+    <row r="123" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B123">
+        <f t="shared" si="1"/>
+        <v>12.199999999999973</v>
+      </c>
+    </row>
+    <row r="124" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B124">
+        <f t="shared" si="1"/>
+        <v>12.299999999999972</v>
+      </c>
+    </row>
+    <row r="125" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B125">
+        <f t="shared" si="1"/>
+        <v>12.399999999999972</v>
+      </c>
+    </row>
+    <row r="126" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B126">
+        <f t="shared" si="1"/>
+        <v>12.499999999999972</v>
+      </c>
+    </row>
+    <row r="127" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B127">
+        <f t="shared" si="1"/>
+        <v>12.599999999999971</v>
+      </c>
+    </row>
+    <row r="128" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B128">
+        <f t="shared" si="1"/>
+        <v>12.699999999999971</v>
+      </c>
+    </row>
+    <row r="129" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B129">
+        <f t="shared" si="1"/>
+        <v>12.799999999999971</v>
+      </c>
+    </row>
+    <row r="130" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B130">
+        <f t="shared" si="1"/>
+        <v>12.89999999999997</v>
+      </c>
+    </row>
+    <row r="131" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B131">
+        <f t="shared" si="1"/>
+        <v>12.99999999999997</v>
+      </c>
+    </row>
+    <row r="132" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B132">
+        <f t="shared" ref="B132:B189" si="2">B131+0.1</f>
+        <v>13.099999999999969</v>
+      </c>
+    </row>
+    <row r="133" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B133">
+        <f t="shared" si="2"/>
+        <v>13.199999999999969</v>
+      </c>
+    </row>
+    <row r="134" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B134">
+        <f t="shared" si="2"/>
+        <v>13.299999999999969</v>
+      </c>
+    </row>
+    <row r="135" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B135">
+        <f t="shared" si="2"/>
+        <v>13.399999999999968</v>
+      </c>
+    </row>
+    <row r="136" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B136">
+        <f t="shared" si="2"/>
+        <v>13.499999999999968</v>
+      </c>
+    </row>
+    <row r="137" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B137">
+        <f t="shared" si="2"/>
+        <v>13.599999999999968</v>
+      </c>
+    </row>
+    <row r="138" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B138">
+        <f t="shared" si="2"/>
+        <v>13.699999999999967</v>
+      </c>
+    </row>
+    <row r="139" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B139">
+        <f t="shared" si="2"/>
+        <v>13.799999999999967</v>
+      </c>
+    </row>
+    <row r="140" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B140">
+        <f t="shared" si="2"/>
+        <v>13.899999999999967</v>
+      </c>
+    </row>
+    <row r="141" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B141">
+        <f t="shared" si="2"/>
+        <v>13.999999999999966</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>